--- a/branches/date-hiv-test-done/StructureDefinition-death-obs.xlsx
+++ b/branches/date-hiv-test-done/StructureDefinition-death-obs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
